--- a/tests/expected_data/3_Отчёт_по_вовлечению_Кабельно-проводниковая продукция.xlsx
+++ b/tests/expected_data/3_Отчёт_по_вовлечению_Кабельно-проводниковая продукция.xlsx
@@ -67,7 +67,7 @@
     <t>До вовлечения</t>
   </si>
   <si>
-    <t>Объем волечения</t>
+    <t>Объем вовлечения</t>
   </si>
   <si>
     <t>После вовлечения</t>
